--- a/src/test/resources/excel/jxls-test-01.xlsx
+++ b/src/test/resources/excel/jxls-test-01.xlsx
@@ -33,20 +33,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="list" var="item" lastCell="H2")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>${name}</t>
+    <t>${item.name}</t>
   </si>
   <si>
-    <t>${age}</t>
+    <t>${item.age}</t>
   </si>
   <si>
-    <t>${utils:formatDate(date,"yyyy-MM-dd HH:mm:ss")}</t>
+    <t>${utils:formatDate(item.date,"yyyy-MM-dd HH:mm:ss")}</t>
+  </si>
+  <si>
+    <t>$[SUM(B2)]</t>
   </si>
 </sst>
 </file>
@@ -69,22 +84,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,30 +113,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,9 +175,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,7 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,24 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,13 +241,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,25 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,37 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,97 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,8 +438,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,34 +462,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +498,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -517,6 +521,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1"/>
@@ -1039,6 +1054,11 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
